--- a/Implementación/Test 9/pareto.xlsx
+++ b/Implementación/Test 9/pareto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51313556-1078-464C-A932-05B1FBF0F551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C21C143-3263-453E-81A2-9C0E70573C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{C93F3CC1-8C25-49CC-9B8B-1ADEACDD799D}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
   <si>
-    <t>Names</t>
-  </si>
-  <si>
     <t>CLAHE__i3__m2__n54__cl0.png</t>
   </si>
   <si>
@@ -730,19 +727,22 @@
     <t>CLAHE__i100__m1000__n2__cl0.0030213.png</t>
   </si>
   <si>
-    <t>Pareto_1</t>
-  </si>
-  <si>
-    <t>Pareto_2</t>
-  </si>
-  <si>
-    <t>Pareto_3</t>
-  </si>
-  <si>
-    <t>Pareto_4</t>
-  </si>
-  <si>
-    <t>Pareto_5</t>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Entropia</t>
+  </si>
+  <si>
+    <t>SSIM</t>
   </si>
 </sst>
 </file>
@@ -1101,13 +1101,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
@@ -1127,7 +1128,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1147,7 +1148,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1167,7 +1168,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1187,7 +1188,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>247</v>
@@ -1207,7 +1208,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1227,7 +1228,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1247,7 +1248,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>121</v>
@@ -1267,7 +1268,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>245</v>
@@ -1287,7 +1288,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1307,7 +1308,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>85</v>
@@ -1327,7 +1328,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -1347,7 +1348,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>121</v>
@@ -1367,7 +1368,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1387,7 +1388,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>221</v>
@@ -1407,7 +1408,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>123</v>
@@ -1427,7 +1428,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>188</v>
@@ -1447,7 +1448,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1467,7 +1468,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -1487,7 +1488,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>70</v>
@@ -1507,7 +1508,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>114</v>
@@ -1527,7 +1528,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1547,7 +1548,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>57</v>
@@ -1567,7 +1568,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>323</v>
@@ -1587,7 +1588,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>104</v>
@@ -1607,7 +1608,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>209</v>
@@ -1627,7 +1628,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>108</v>
@@ -1647,7 +1648,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -1667,7 +1668,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1687,7 +1688,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>211</v>
@@ -1707,7 +1708,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1727,7 +1728,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>106</v>
@@ -1747,7 +1748,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>118</v>
@@ -1767,7 +1768,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>241</v>
@@ -1787,7 +1788,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>118</v>
@@ -1807,7 +1808,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>213</v>
@@ -1827,7 +1828,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>211</v>
@@ -1847,7 +1848,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>211</v>
@@ -1867,7 +1868,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>114</v>
@@ -1887,7 +1888,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1907,7 +1908,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>100</v>
@@ -1927,7 +1928,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>23</v>
@@ -1947,7 +1948,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>219</v>
@@ -1967,7 +1968,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>102</v>
@@ -1987,7 +1988,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>207</v>
@@ -2007,7 +2008,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>122</v>
@@ -2027,7 +2028,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>104</v>
@@ -2047,7 +2048,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>119</v>
@@ -2067,7 +2068,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>119</v>
@@ -2087,7 +2088,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>213</v>
@@ -2107,7 +2108,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>205</v>
@@ -2127,7 +2128,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>121</v>
@@ -2147,7 +2148,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2167,7 +2168,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>535</v>
@@ -2187,7 +2188,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>651</v>
@@ -2207,7 +2208,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56">
         <v>756</v>
@@ -2227,7 +2228,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>205</v>
@@ -2247,7 +2248,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58">
         <v>1000</v>
@@ -2267,7 +2268,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>116</v>
@@ -2287,7 +2288,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60">
         <v>116</v>
@@ -2307,7 +2308,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>110</v>
@@ -2327,7 +2328,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>615</v>
@@ -2347,7 +2348,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>120</v>
@@ -2367,7 +2368,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>207</v>
@@ -2387,7 +2388,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>75</v>
@@ -2407,7 +2408,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>114</v>
@@ -2427,7 +2428,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>211</v>
@@ -2447,7 +2448,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>245</v>
@@ -2467,7 +2468,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>108</v>
@@ -2487,7 +2488,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>113</v>
@@ -2507,7 +2508,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>201</v>
@@ -2527,7 +2528,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -2547,7 +2548,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2567,7 +2568,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>499</v>
@@ -2587,7 +2588,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>114</v>
@@ -2607,7 +2608,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>115</v>
@@ -2627,7 +2628,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>121</v>
@@ -2647,7 +2648,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>243</v>
@@ -2667,7 +2668,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>19</v>
@@ -2687,7 +2688,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>217</v>
@@ -2707,7 +2708,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81">
         <v>114</v>
@@ -2727,7 +2728,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -2747,7 +2748,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>247</v>
@@ -2767,7 +2768,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -2787,7 +2788,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2807,7 +2808,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86">
         <v>213</v>
@@ -2827,7 +2828,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87">
         <v>32</v>
@@ -2847,7 +2848,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -2867,7 +2868,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89">
         <v>112</v>
@@ -2887,7 +2888,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>203</v>
@@ -2907,7 +2908,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>229</v>
@@ -2927,7 +2928,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92">
         <v>116</v>
@@ -2947,7 +2948,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93">
         <v>120</v>
@@ -2967,7 +2968,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94">
         <v>117</v>
@@ -2987,7 +2988,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -3007,7 +3008,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96">
         <v>243</v>
@@ -3027,7 +3028,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97">
         <v>227</v>
@@ -3047,7 +3048,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98">
         <v>15</v>
@@ -3067,7 +3068,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -3087,7 +3088,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -3107,7 +3108,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -3127,7 +3128,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102">
         <v>201</v>
@@ -3147,7 +3148,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103">
         <v>106</v>
@@ -3167,7 +3168,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104">
         <v>211</v>
@@ -3187,7 +3188,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105">
         <v>114</v>
@@ -3207,7 +3208,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106">
         <v>213</v>
@@ -3227,7 +3228,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107">
         <v>217</v>
@@ -3247,7 +3248,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -3267,7 +3268,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109">
         <v>81</v>
@@ -3287,7 +3288,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110">
         <v>100</v>
@@ -3307,7 +3308,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111">
         <v>64</v>
@@ -3327,7 +3328,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112">
         <v>122</v>
@@ -3347,7 +3348,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113">
         <v>115</v>
@@ -3367,7 +3368,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114">
         <v>201</v>
@@ -3387,7 +3388,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115">
         <v>116</v>
@@ -3407,7 +3408,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116">
         <v>51</v>
@@ -3427,7 +3428,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117">
         <v>213</v>
@@ -3447,7 +3448,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118">
         <v>223</v>
@@ -3467,7 +3468,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119">
         <v>100</v>
@@ -3487,7 +3488,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120">
         <v>217</v>
@@ -3507,7 +3508,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121">
         <v>350</v>
@@ -3527,7 +3528,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122">
         <v>227</v>
@@ -3547,7 +3548,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123">
         <v>423</v>
@@ -3567,7 +3568,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124">
         <v>55</v>
@@ -3587,7 +3588,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125">
         <v>104</v>
@@ -3607,7 +3608,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126">
         <v>225</v>
@@ -3627,7 +3628,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127">
         <v>100</v>
@@ -3647,7 +3648,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -3667,7 +3668,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129">
         <v>724</v>
@@ -3687,7 +3688,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B130">
         <v>122</v>
@@ -3707,7 +3708,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131">
         <v>219</v>
@@ -3727,7 +3728,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132">
         <v>112</v>
@@ -3747,7 +3748,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -3767,7 +3768,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134">
         <v>225</v>
@@ -3787,7 +3788,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135">
         <v>488</v>
@@ -3807,7 +3808,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136">
         <v>964</v>
@@ -3827,7 +3828,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137">
         <v>316</v>
@@ -3847,7 +3848,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138">
         <v>89</v>
@@ -3867,7 +3868,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139">
         <v>203</v>
@@ -3887,7 +3888,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140">
         <v>229</v>
@@ -3907,7 +3908,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141">
         <v>115</v>
@@ -3927,7 +3928,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142">
         <v>318</v>
@@ -3947,7 +3948,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143">
         <v>445</v>
@@ -3967,7 +3968,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144">
         <v>533</v>
@@ -3987,7 +3988,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145">
         <v>658</v>
@@ -4007,7 +4008,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146">
         <v>501</v>
@@ -4027,7 +4028,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147">
         <v>428</v>
@@ -4047,7 +4048,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148">
         <v>173</v>
@@ -4067,7 +4068,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149">
         <v>84</v>
@@ -4087,7 +4088,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -4107,7 +4108,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151">
         <v>223</v>
@@ -4127,7 +4128,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152">
         <v>129</v>
@@ -4147,7 +4148,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153">
         <v>120</v>
@@ -4167,7 +4168,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B154">
         <v>751</v>
@@ -4187,7 +4188,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155">
         <v>737</v>
@@ -4207,7 +4208,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B156">
         <v>121</v>
@@ -4227,7 +4228,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157">
         <v>215</v>
@@ -4247,7 +4248,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B158">
         <v>122</v>
@@ -4267,7 +4268,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B159">
         <v>116</v>
@@ -4287,7 +4288,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B160">
         <v>371</v>
@@ -4307,7 +4308,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -4327,7 +4328,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162">
         <v>21</v>
@@ -4347,7 +4348,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163">
         <v>681</v>
@@ -4367,7 +4368,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164">
         <v>80</v>
@@ -4387,7 +4388,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B165">
         <v>110</v>
@@ -4407,7 +4408,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -4427,7 +4428,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167">
         <v>116</v>
@@ -4447,7 +4448,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B168">
         <v>125</v>
@@ -4467,7 +4468,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -4487,7 +4488,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B170">
         <v>120</v>
@@ -4507,7 +4508,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B171">
         <v>20</v>
@@ -4527,7 +4528,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B172">
         <v>8</v>
@@ -4547,7 +4548,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B173">
         <v>172</v>
@@ -4567,7 +4568,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B174">
         <v>18</v>
@@ -4587,7 +4588,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -4607,7 +4608,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B176">
         <v>192</v>
@@ -4627,7 +4628,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B177">
         <v>10</v>
@@ -4647,7 +4648,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B178">
         <v>115</v>
@@ -4667,7 +4668,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B179">
         <v>39</v>
@@ -4687,7 +4688,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B180">
         <v>115</v>
@@ -4707,7 +4708,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B181">
         <v>245</v>
@@ -4727,7 +4728,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -4747,7 +4748,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B183">
         <v>227</v>
@@ -4767,7 +4768,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184">
         <v>113</v>
@@ -4787,7 +4788,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B185">
         <v>117</v>
@@ -4807,7 +4808,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B186">
         <v>675</v>
@@ -4827,7 +4828,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B187">
         <v>38</v>
@@ -4847,7 +4848,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B188">
         <v>217</v>
@@ -4867,7 +4868,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B189">
         <v>23</v>
@@ -4887,7 +4888,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B190">
         <v>2</v>
@@ -4907,7 +4908,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -4927,7 +4928,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B192">
         <v>108</v>
@@ -4947,7 +4948,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B193">
         <v>106</v>
@@ -4967,7 +4968,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B194">
         <v>4</v>
@@ -4987,7 +4988,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B195">
         <v>4</v>
@@ -5007,7 +5008,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B196">
         <v>114</v>
@@ -5027,7 +5028,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B197">
         <v>219</v>
@@ -5047,7 +5048,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B198">
         <v>719</v>
@@ -5067,7 +5068,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B199">
         <v>18</v>
@@ -5087,7 +5088,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200">
         <v>587</v>
@@ -5107,7 +5108,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B201">
         <v>15</v>
@@ -5127,7 +5128,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B202">
         <v>15</v>
@@ -5147,7 +5148,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B203">
         <v>14</v>
@@ -5167,7 +5168,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B204">
         <v>1000</v>
@@ -5187,7 +5188,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -5207,7 +5208,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B206">
         <v>13</v>
@@ -5227,7 +5228,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B207">
         <v>41</v>
@@ -5247,7 +5248,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B208">
         <v>13</v>
@@ -5267,7 +5268,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -5287,7 +5288,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B210">
         <v>23</v>
@@ -5307,7 +5308,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B211">
         <v>267</v>
@@ -5327,7 +5328,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B212">
         <v>1000</v>
@@ -5347,7 +5348,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B213">
         <v>1000</v>
@@ -5367,7 +5368,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B214">
         <v>104</v>
@@ -5387,7 +5388,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B215">
         <v>106</v>
@@ -5407,7 +5408,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B216">
         <v>4</v>
@@ -5427,7 +5428,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B217">
         <v>4</v>
@@ -5447,7 +5448,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -5467,7 +5468,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219">
         <v>936</v>
@@ -5487,7 +5488,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B220">
         <v>905</v>
@@ -5507,7 +5508,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B221">
         <v>854</v>
@@ -5527,7 +5528,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B222">
         <v>863</v>
@@ -5547,7 +5548,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B223">
         <v>1000</v>
@@ -5567,7 +5568,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B224">
         <v>784</v>
@@ -5587,7 +5588,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B225">
         <v>857</v>
@@ -5607,7 +5608,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B226">
         <v>972</v>
@@ -5627,7 +5628,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227">
         <v>1000</v>
@@ -5647,7 +5648,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B228">
         <v>848</v>
@@ -5667,7 +5668,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B229">
         <v>931</v>
@@ -5687,7 +5688,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B230">
         <v>990</v>
@@ -5707,7 +5708,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -5727,7 +5728,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B232">
         <v>872</v>
@@ -5747,7 +5748,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B233">
         <v>1000</v>

--- a/Implementación/Test 9/pareto.xlsx
+++ b/Implementación/Test 9/pareto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C21C143-3263-453E-81A2-9C0E70573C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C453327-1DD3-45B5-9FF9-5D7CC102178D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{C93F3CC1-8C25-49CC-9B8B-1ADEACDD799D}"/>
   </bookViews>
